--- a/biology/Écologie/Réseau_écologique_national/Réseau_écologique_national.xlsx
+++ b/biology/Écologie/Réseau_écologique_national/Réseau_écologique_national.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_%C3%A9cologique_national</t>
+          <t>Réseau_écologique_national</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réseau écologique national est un schéma et un projet national, issu de l'application de la théorie de l'Écologie du paysage. En France, il s'agit de la « Trame verte et bleue nationale », proposée par le Grenelle de l'Environnement.
 Il décrit pour un pays le complexe constitué par la somme (physique et fonctionnelle) des infrastructures naturelles (ou « corridors biologiques »). Pour certains insectes, oiseaux, poissons ou cétacés qui sont de grands migrateurs ce réseau a des extensions nécessaire dans d'autres parties du monde.Ce réseau peut-être visible à nos yeux (réseau de corridors constitués de vallées, fleuves, coteaux) ou plus discret (par exemple, le corridor de migration d'une espèce de papillon qui pourrait être interrompu par ex par une zone où des insecticides le tuent ou où la pollution lumineuse le perturbe…).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_%C3%A9cologique_national</t>
+          <t>Réseau_écologique_national</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Élément d'un réseau multiscalaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réseau écologique national fait nécessairement partie d'un réseau plus vaste, et doit subsidiairement regrouper des réseaux régionaux qui eux-mêmes regroupent des trames vertes locales (maillages de corridors biologiques). Il doit être écologiquement connecté avec les réseaux écologiques des pays voisins et avec les réseaux écologiques sous-marins pour les pays bordés par la mer.
 Un réseau écologique est toujours efficient à plusieurs échelles spatio-temporelles. Il doit être fonctionnel dès les échelles les plus locales (ex réseau bactérien ou de mycélium de champignons), aux échelles écopaysagères biosphériques (ex : corridor littoral continental).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_%C3%A9cologique_national</t>
+          <t>Réseau_écologique_national</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Critiques et limites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces réseaux se développent moins vite que la biodiversité ne régresse. Ils sont encore trop souvent des projets de papiers, sans financements à la hauteur des enjeux, pas ou peu concrétisés sur le terrain, ou seulement comme réseau minimal vital se limitant à protéger l'existant là où les pressions foncières sont les moindres, plutôt qu'à restaurer une véritable trame fonctionnelle. Parfois ce ne sont sur le terrain que des réseaux de chemins de promenade, ou des réseaux d'espaces gérés pour favoriser quelques espèces phares, en oubliant les réseaux immatériels de migration des oiseaux, insectes, poissons, mammifères marins, plantes, champignons, etc. Certains s'inquiètent du fait que nombre des zones protégées sont littorales ou montagneuses et sont à ce titre particulièrement concernées par les risques liés au changement climatique.
 </t>
